--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/24_Çorum_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/24_Çorum_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1CA6C37-17EE-4B09-B709-0488C3B43C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{540AE27C-340A-4358-AB05-682405A73A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5061C3DE-E7C7-42D4-8401-61D894977663}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CAE5BE0-AB2A-49AF-802B-17C21C5209FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{17E1011B-4974-4F7A-B8DE-78006643B789}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{22EA67DE-DF3D-41CC-AB5E-3E850435DDE4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{EB2A51D5-3E97-4D41-8E22-E86FFF510427}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{661367B9-1178-4E11-BAE8-6F9C90C45AE0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{712F2950-11BC-43A9-8079-4D51B0F2A399}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{9A557B64-0AEE-4AF1-AEF8-4FBDA784ADB1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{62F143C1-0EC3-44F8-9107-F34E6DED98DA}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{AD80249A-9BCF-4B33-B56E-1BB6A863F9C3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C387BE0C-6945-4212-8386-618016372D4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA46B36-4694-4D36-B877-C22187E3A8B3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2443,18 +2443,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6D62149C-E3ED-4EA5-B704-E4F0647CD57A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{04C4AD41-ADA7-454D-9F7A-A88F40B2252C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A1611427-7683-43E1-9B16-7EC3513124D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6F68A876-EE47-4F4A-94B7-80C6C602C8AA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B8047390-4C2F-4D18-902E-FC448706D202}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DD994E72-A060-40EE-BF1B-C0DCD711AFC3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7365A8ED-4C98-4640-9131-B3E162A2F082}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AEC63E5B-80CF-427F-94F8-0C6068BED135}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1E5F8D0D-08A8-4757-AC3B-2321A878B267}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7DE5AE0E-5173-45B9-A4C1-0365CCD0D077}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B1CE12FC-48D6-49D1-BF3F-CA3E2D9F05CC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4259C7C2-871A-498E-AFD3-91F0E064AE95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7F768B5C-9FA9-4F73-823B-1A23E5791D93}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FFF7D941-9FA0-4CE8-9B6B-27DFA5C57BEB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{75B28C5A-219C-4E48-BD3F-B7E905245E80}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CF9D3A18-6CD5-4E42-9DFA-FEDB44C61B25}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B8AA061E-C160-41A6-A7DA-7AE6E516E4FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6D8174A8-E1F1-4EE6-8686-3D93EF2CA45B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2175377B-A3A6-45B3-82C6-B7441AE4F864}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ED11DC9B-B49D-49EE-A144-9A2AB35EC1B0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{871147E6-8525-4B23-9625-0ECDA84A6665}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F5913F01-E7F7-4D87-9936-22A9CD265507}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FBEB321F-D514-4B13-9438-8F42A5788F82}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{600C985B-1807-49D6-BF4F-2E0B7031114F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A27C7E2-8376-4752-8403-8B41A3DD8470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B138C41-0742-4A0A-9906-E921BB80E1BF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3642,18 +3642,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{50674BF9-5620-4F02-A140-17350FA83195}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0164A6A7-383D-4646-8A73-FF69F663B7BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{66BE8F05-64F7-43F9-A272-8FA7CE30BC66}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BC732A7A-F129-43D8-AF22-3E0C16A39701}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9BF3A786-4BCD-4F13-AC68-8E99E3C8C147}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{144CC58C-ADA3-4719-914B-C8E529ED6FF6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EA9C09E1-C4C9-4DB7-8352-810B2046AB83}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{679ECFFA-C285-4D05-9ABA-96AA434C021A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B9329567-6D10-4461-836E-581ACF019F8A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C17FE48E-C9E0-4D90-ACDC-3DD9EB5A5D62}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D3657558-FF64-4C81-8193-A89C91223A12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E0DCF1C4-BAB6-4D5C-81D4-317D5B695DCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3AA89EE9-0D6C-4FFB-BB02-BFFD631C7D5C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{061328B9-7F5A-4DF7-979D-65D367FDFCC7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5ED823C1-CB4F-42CA-A08C-ADB894A209A9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DB7610F3-E8EA-4E4A-8758-AC3183933BD3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E87C3C80-43EC-443D-9126-017744885BC7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{79C2F829-464A-435E-BDD9-85F1BCE01BD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{630ECF39-4801-4401-99E5-5673B2CDB3BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A60C959B-ECBA-4BD3-9A05-8B4B6442E8C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0D512CEA-AE59-4E9B-9978-9DCC6A57F83A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3EFB192F-60F5-4FAB-BE6D-A790496C0F93}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EE883682-A7BF-46AC-8E01-438153DD9A07}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB7AB6C4-FD2D-40CF-A4FB-425724A77848}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3666,7 +3666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FB7B9C-BC9F-4DF8-B479-B36424B6E622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD74A9D-B292-4CDB-BA6A-F82566BB96F1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4833,18 +4833,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{866A5424-F300-4C2B-B599-6BD2B450EE1E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A987629D-6B8B-46DD-88BE-C5E31E053A35}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5C5D411C-F8A3-4D88-8C1C-C16352DA752B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CBA9BF1A-DBB8-42C3-BDA0-F7CB4B34D5B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{92161432-B6B6-490B-9607-59E5900BE242}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9496E338-93EB-4F36-B454-266742B06089}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DB9C66F1-FAAD-4997-8039-2D92D822929C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{934B57D7-33D7-477E-B49C-CE8A7ACDA127}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F29CFDA-A84E-4492-B54D-E991E036CC85}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EFFE78FF-5CB8-44F7-A174-10963B21FB36}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{846EB5ED-0A4E-444B-BA27-7A5243C1F88C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DEFC0906-A1A3-424A-A049-17BC55BE3DA8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{16D7DB0B-1D1E-41CC-B3E1-D1D4F32ED202}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3DB7C276-7002-4D09-B4C3-CA21A4B506C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D2625877-1C0F-463F-BD86-779C3C1DD6A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DA5CC485-B327-4FC3-A41A-E213031E366F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2C36379A-058A-45EC-88AE-46067D44F944}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{45AD63D7-51A4-4E67-813D-FC409970D6C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{30F56F19-A177-467F-8514-5F66292AACF2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AC3B4675-F087-4425-8D00-9A29F4AACE06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D74A5EA4-8EF4-4B9D-B8CA-D755397D3128}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5858155F-8EC8-4D46-8DEA-B10DBB1D3740}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{63E4056D-F102-4633-A6A5-092EE4F95A10}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{27F658E1-7B1D-4223-9D16-5D55AE2BC5D8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4857,7 +4857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE364E21-39B0-4BD6-B1B1-FABC3BFFACD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4031DC-BC74-4CE7-A7AB-ABDA06D8DF0F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6020,18 +6020,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AAC0DA51-B7A9-4CE6-9301-BDA9F3DACF62}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A4A09C5B-A149-4B56-9C16-A4257C03B9E4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5517FDD8-DF9E-4F51-B497-EF66275CC728}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{09E65E08-D70A-42A0-867B-64E95F09ABA5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E406192D-A392-4FEB-A692-4A10EF642DDD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{659F2483-CCE6-4627-8D87-62B6D65A7E49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A0D1BA34-0206-4D2D-A57C-EF4603DC294C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C9C815E5-C600-4F05-B2A1-BDEDF93B3EBA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{26CA4339-8E55-4C3B-9145-173D3EFCFF09}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C0F8A963-80AD-4A2D-9394-69CCC4AB3AC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B956C1F6-960B-409E-B8B2-81DE75519C68}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5D0A9606-0B15-4A4C-A35D-184924481841}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F6B255BA-897A-4C6D-B6A6-5C1AFED2C3C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EB2CEBC5-AEF3-4845-AA82-40D87631625C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9EC2F3DE-D510-4084-85A4-8BDF1D1E6640}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6785988F-6488-4156-B205-2D71848268F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B201FD5C-C72A-4D0C-B993-903D3D862653}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4945825E-D4A4-4E7E-BE77-BEF167FE368C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F602FD58-3299-44E8-9559-780F6F4CDBFC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2AC961C0-713C-41BB-A800-97B92F95697D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1DB12F5F-7B6D-4A30-BD9F-CE0F718BDFB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2EBD643D-2D6B-4EE7-B7BB-B9985836DA1F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C2746D98-027B-42D9-8E80-5F17CF2EF610}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{40E33200-E07C-4244-B406-2E044A21FFF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6044,7 +6044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3F048A-39EA-4A30-B0DD-CBD81EB8534B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFDBE5F-FAF6-4EEB-BC33-DDD843091879}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7265,18 +7265,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{040641CC-E75D-42B6-944F-59E1A0729403}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A905CB5E-1CEB-4C2D-9362-02BB7ECDFF42}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B6CE3A1B-1327-4B73-94D9-F6D46254A8F5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{24250E6C-D168-47B4-8205-ABDC2B035348}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EAA8702B-3E6B-4813-9378-3B7F3583FE55}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5FDC325D-C8C5-44F3-974A-37FD0EF3B672}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A9C8E3F8-F28E-4517-B7B9-392742DAFFDE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4E650B92-EE35-42F2-9268-AF141C1F1025}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C4108C37-1078-4E26-A8B8-6F5A1ACEE955}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B7F0EEA1-B6E6-4E1B-B2B6-5B725C26606D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0A47B95A-5009-4D06-B753-FC20A56188C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4C3C4974-ACB7-48F4-8F8B-A1A0A7580BD6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9D43091A-BFAD-4C2A-94AE-38CE79B5617E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E5E1DD9D-8A47-4AD4-86EC-4BCA493117B5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C3FF47FE-87DA-4095-858E-51E52918FBFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{65248840-FF6E-4717-9E57-2EFDFC1332CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BAC9369B-BE98-4630-BE7A-A77812C24EF5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{99C0EEAE-D0BE-4178-9D1F-E17F741C4C56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9016D0B5-A8CC-4199-9E34-CEC544FB233E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC4B0A5F-C6BA-4935-AB4E-A42F225A7507}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7482422-BDC6-437B-9389-1529070285B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3997D807-EDE2-41E9-A1DC-13C27E8DF569}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{072E3710-FF71-4BE7-A910-48516F5F5F8B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7883EE58-F17B-4EDC-AD7F-FFF541858CAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7289,7 +7289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2381748D-5AD6-46D7-B8B3-49C697664715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2BBF11-CCAE-40FF-9753-4296F444B3D1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8508,18 +8508,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65A93396-3B5C-4AAC-8E75-CF569B9FDE75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D43C2168-D0A9-42F8-A7D6-E90DCB8EDEBC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6CAA2002-96BD-4156-896F-24B1696A450A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BCD01D1C-7CC6-44D0-A6B0-93820A0B590E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1EF3BEA7-FA5F-45FB-8115-82D58B03490B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{778B80F8-C9E1-45F1-836E-F3E8976C0EAA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E891EF30-450F-4816-80C5-E1C8D4B976CC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6C988C1E-3911-4401-BDA1-A48AE0B6B074}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E113147F-78D7-465A-9EC5-7F8E1B2E3340}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D7B8849F-14BB-416F-9F7C-8E1EE69D4B4D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{19C33B64-D7D9-4ABE-868B-50DAAB38826A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03A548B8-753C-402E-866D-B63BE025C71A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{94213DC5-49C6-4E8D-B75C-094A080C5E77}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BA839EA5-52A3-4DA4-AEA5-2973C12C51EF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4557F3A4-0772-4562-B4E5-2EAB2BF0D7FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D33649BA-D2E8-41AC-B7FE-1F2A50D9E902}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D09AE6D0-208D-45E7-8923-FBF541F576AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E2E70EDA-430B-4B85-8CAB-61A94615C8EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{96C35EC7-9533-4501-95A7-2216BF96281A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{88368E18-95F0-49D4-8010-903F63AD8D73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{226188A1-0C7B-4C9A-920B-9C85E14F9E4A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EE475F7F-D89E-46A3-A452-B1489CBAD0AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{470A671A-8175-4D0B-9117-CC58853BB006}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2932AD6B-EA7C-44D8-B1A8-EE112105B770}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8532,7 +8532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA84EBE4-3196-4E2F-B900-67BF59C49220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1208B4-362C-43A2-AA77-EF646521E471}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9745,18 +9745,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8245164C-E545-4AE1-B73E-621E3BC938FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{682EC97A-9D9A-4D5E-9EF1-4FA0559CC1BF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1D52F5D6-8FAC-410D-841A-0F35F0ECCAA9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B39D41A8-5709-4F5D-93A1-24BE817BA5AB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{38CFA134-0977-4662-951B-B6EBF84C7243}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FE41F4C3-EB17-489F-8F25-E74B57CDA74D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{35EF9EE1-DDCB-4E94-B30B-1663FFBAFF97}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A906DDAE-EC86-48D8-8AE5-FE7A57DDAFD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9F8FF55F-C4BA-4254-81D0-9C709F8C0690}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C3AEFE0F-3D45-4E6A-9C56-4A9AB0E3BE80}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3D3C7E1C-73A9-4205-815A-EF58CAE63636}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8C7A6D17-DFB2-4899-AD57-E330763C4FC6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{64A15427-65AD-4E54-932B-5C3DF3B12F60}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2F153656-7513-4436-A507-8EE7DE597294}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{54B78FA0-9B32-4ED6-8B79-BBB96CFD55C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8EE69BA3-13D9-4337-8F54-28AC2093DFD9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7066BE52-EB42-4BEB-AFE2-A40E666A81FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4E2E12BE-271C-44EE-8500-571719EF9FF8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BCA2B766-86CB-4ECB-B03D-A45C9B5C258E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E3BEC37B-367A-46C4-923A-B3AA1C770252}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1D4C1E6A-3FE3-464B-A5C8-4D8A220F4537}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0024F317-5257-425E-AAC9-3350C6389FF0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FCC405D5-79C3-4864-9E53-A2646866D4D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F44366F8-7676-4C4A-B4A7-B227A109C3C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9769,7 +9769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4BCA8D-F7DE-4D6E-A8E4-4B461EDE907B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5DF0F6-DE6E-4648-AE14-10F795527D40}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10970,18 +10970,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{94365E3A-5B66-49C3-9A03-43004F37EA01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6DA52B22-5662-4E8E-BFFE-26CDBB2DC163}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CB80145B-7D42-4F66-9055-3CF964C0F3E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8060E349-3254-4CF0-8A92-7A94667CF363}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2EC20C6B-6C8D-48D6-B592-4FDB63F34C08}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ED9F376E-6ED3-4354-B2DB-DED5D530EB67}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{03A571A7-5B94-4C38-AB22-6DC975373AAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{80258130-CF44-47ED-BBA4-102BE4608633}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{94B508AE-EAF9-4A3F-BD26-ADBB7AF96DCF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3C2ABF0B-7431-46B1-B983-3F9F0EE669F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3782FD83-F428-4D6A-83DD-6E6737429D2E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{488E0D30-3107-4182-8679-1852037F4CB9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F078748F-6CBB-41EC-8FF5-B84FC43497D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4C1401C3-7E76-40AF-9145-E84A5254FB5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0F6E048D-E8EA-4513-A649-88C7B326CF51}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A031AE2D-DC2A-41E0-8F0F-56E7C8AC954F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C826C2FD-7341-4651-A98F-603AC8CA953E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{50F6C5D7-E7D0-4FA7-8BBF-95EC05494996}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E6550BF4-C684-471A-B3A8-70905CEA6F0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D0D16FF7-ECC3-4660-B896-DC4A66FD688F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CBF46C13-554A-4B2D-8E05-998EE3094641}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3E6A47D4-B863-4348-A1AE-CF228B02EB94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CEBDD0D0-F160-4D00-96F4-D1CB7D6B3E3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B054BEEC-E536-46E2-A920-3FD3695CFE67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10994,7 +10994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DB9930-3F81-43ED-99A2-AE1EAF65DAEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266742-DBF9-4F62-A656-E97F638DACCF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12195,18 +12195,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D0808B63-5888-4DF2-89DE-E14DACB7F518}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2C7FD03F-FF85-4A84-A2E8-07B97988B569}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{07EF0FB4-7B8A-46CA-9687-C779B3899D32}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38014052-04C3-46A1-A9F4-75A84E7187B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B23A7B86-01AA-4ADF-BEFF-84903A47CCC1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3CD22A1C-93EF-42BE-9F1C-BD30D996D57B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{692FB684-BD1A-44A7-BBFF-F54B371B4E4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8A1615AE-02AD-4853-A430-E10B79053EAA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C843180A-F82C-41ED-950A-20B4ED70779E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6C3AC2D9-C237-459C-8166-93001D3F7D43}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{491E8DC5-C0DD-4136-A4B6-E6443CF68C08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8FD57D1A-32FF-42E6-8D7B-DDAC629E048B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{478DD07E-C7B1-46A1-9A64-18E51649BE1B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2EAEC5C3-FFB3-4966-8FAA-71F1B1EECF70}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6322A926-D716-469E-B24F-9C404409E6EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{57320D42-08F4-48B6-8875-28283C8A1BA6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9A0A5A98-4AFF-4107-A01C-192C8D34CB39}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{06E06AB8-A9B4-45AF-A515-2600560A1CC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7C6406C6-C23D-416B-85AA-33AB2343A5B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FFF3CF1E-06DD-48DE-B763-129FBFF747C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C380F4B0-6829-4383-AC08-4A4E62DFC3D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7D97C1D1-2296-42B8-A3B7-2661F67783E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CB589B03-9BA5-4FF3-9B7A-6791C4ACDFB9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DCC582A1-943F-4E78-97CE-B99F9B2D32D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12219,7 +12219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C82A64-B4AB-4029-8459-BF3A8652175C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B5D85C-D8E0-48D8-9DA7-2FB5B2C8E4EC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13416,18 +13416,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1E21DCBB-1CC0-4FF4-8653-1CAA28565C87}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{410650DB-4905-4C71-85C1-40685F1640A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{20FD196A-791D-47DC-81D5-2C64BB74C7F7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9637AB34-5319-4AEB-A711-C4A6447D207B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{35960AF7-CECD-4124-B0E4-51A17FBE315B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A8E94E99-45A1-478E-8B78-7F6036A7C8B0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ED24FB9A-9DF0-4262-A62C-A4E90219A036}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{30FA6F90-3DA5-44D7-A320-65E2CDC188DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A553AAA4-B6FE-4245-A10A-E01B84BB2FF0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{957BEB90-2D05-444D-A545-E94581C4B6BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B9BE2149-F71F-46FE-89E8-75194E5F4830}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BB4BBEB9-7CEE-49E0-8AC7-4BB4956EB04C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{042A290B-522E-4A61-B7AC-42AECFD1DE32}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EB420A8C-B03E-4E9C-A57F-5A27F1ED6001}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FE93004E-A47A-4412-A1F9-03850DFFFEFD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C68756AC-73BA-4656-BD45-2BBBFA89A83D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1FBEDF98-AA32-48FE-97C1-4B9D2747AF61}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DFEAD616-4A0E-4354-960E-0E7E63D845E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3B5670FD-F327-41B4-956A-14E4982B81E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C667CF89-B363-443C-8CC4-8E17060B153C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2057EE4D-3B17-44D3-9718-2014CF06DEA8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{506DC390-FBAB-4120-A892-02C521692CCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{37F36E03-48A9-46B3-AB83-222B288C66BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3EF85239-0CB3-484B-AB7A-6DFC9AE7B65E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13440,7 +13440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA4CDC0-FD37-4B12-ABDA-C4094FA87093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05049D5-0557-4815-87B5-9EA53A0F87FE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14637,18 +14637,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BB73D771-B74D-4131-BA34-E97BD653FE6E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{401360EC-E43D-4754-991B-5C4ABBDC5684}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0836ED61-3A27-45C7-98EB-0023672F0978}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{42CD6166-417D-4C57-8E90-8839EE2C190F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{302DCFBD-D5BD-4BB4-B089-400A2325C3DA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D525703E-FEC2-431B-8424-809C026EF082}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C768D1E-BBF2-4F03-BE53-B348C2E581A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8A6449C3-F9BA-4F46-B0E5-61226B518D43}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{68DBE496-4C5C-4598-BFFA-88D2F7F38694}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1E2135B6-F92B-49E5-A44F-750C51336D28}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{74AD9249-5ECD-4B29-804B-0F0710B00989}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FEA67086-EEA9-443E-90BF-1594E9FB7735}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5D70E1F4-C926-4E35-97FB-59DE49F4FDF2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7B16145A-7B5E-4CF7-BF7C-E092A8954A97}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7CD53E8F-E7A9-4A12-B10A-AFEE3744A97D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B954543-3950-48E2-B10E-7902F07595C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{51C66B2B-4E79-4AA2-BE99-D7DB8C9AFF15}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8894F2BF-F05C-48D2-809C-5F228A21B9A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{16D29694-6D90-4F98-92D1-A986CB9CFFB5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{05F944F7-907D-4EFE-B4F4-E707B2A0E52D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{178DB94F-0659-4D58-8553-C432F1A78F91}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{47A20C89-CBE3-41FC-AA15-08E71E53C132}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D748E012-881B-42A1-8E77-491E40002BAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9A2426D3-D761-4709-BFE4-E8D8D06063DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14661,7 +14661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFFEEF9-DA6C-415F-ABB8-B7A9660DA181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02336CD2-2D22-4928-8A4F-F2E68FD0C9B6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15854,18 +15854,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BA4F6C3A-2C6C-4FCC-88B7-8B1711433A9E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{57E7BE0A-AB08-4F1A-89E7-38F0DA735EC3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{52933D2F-97D4-484F-B9CA-59A06D06832E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DD1EF035-D991-47A4-9435-6CA3D842463A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{541781FE-D719-4D3A-8483-0367C59E683F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9AECD80E-2351-4F41-8DCB-56B18428B5FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0C4779D3-008F-4ADE-8B95-FE11938BE7A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9D3E4C57-B733-4AE8-9E3B-172AFF7CB75C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AE5D9C96-253A-4DE1-AF7B-DE3AA3358E9A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{04789615-526A-4E33-96AF-0C87A4124768}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6A8EB6FA-06DB-4202-9692-0DDB3904B4E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BFD081FB-8BEA-45E7-8F3C-1D8CFD951D63}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9D03E33D-1A26-4810-8DDB-C8B1BFCD324B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B983E4A3-1603-41AC-B4C8-6F68AA2FE648}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DAABB634-A694-48BA-901C-A2A6647F0BDD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1439F481-787B-43E3-97E2-3A7A47B879E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{19D6B3CA-15F9-4038-A682-1D4081186A31}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D479876C-3503-44FD-99A4-5B3C91DFC865}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9C1E2BCA-EE9E-4CBB-B053-BF1FCA511437}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{88712256-4E21-43E5-A84F-9705C44B031A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B636B84D-D980-4A19-AE4B-771CED7C5491}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F13EBD12-16AD-4181-A047-335058A308C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{01D2ED8F-E8B1-4E9A-B623-26318C88B436}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4B6985A0-D357-4C23-8AF7-0C2ACBC2547D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
